--- a/confused_makams.xlsx
+++ b/confused_makams.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihpar/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ihpar/Documents/Deve/rep_learning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D59B90A-561A-A74E-9FA4-EE74AA0ECBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B99157-09D8-8F4D-A97D-6031D7586D1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22980" yWindow="12040" windowWidth="28040" windowHeight="17440" xr2:uid="{E88553F3-15D2-0C48-9D23-60347F1F58E3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{E88553F3-15D2-0C48-9D23-60347F1F58E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>True Makam</t>
   </si>
   <si>
-    <t>Most Common Confused With</t>
-  </si>
-  <si>
     <t>Uşşak</t>
   </si>
   <si>
@@ -62,14 +59,23 @@
     <t>Rast</t>
   </si>
   <si>
-    <t>Muhayyer</t>
+    <t>Confused Pieces</t>
+  </si>
+  <si>
+    <t>Total Pieces</t>
+  </si>
+  <si>
+    <t>Most Frequent Confusion</t>
+  </si>
+  <si>
+    <t>Confusion Rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +95,13 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,17 +136,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -465,66 +490,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A4E39C-83C0-924C-B318-48B576ABA474}">
-  <dimension ref="B2:C7"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>14</v>
+      </c>
+      <c r="F3" s="5">
+        <f>(D3/E3)</f>
+        <v>0.14285714285714285</v>
+      </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4">
+        <v>11</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F6" si="0">(D4/E4)</f>
+        <v>0.18181818181818182</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>2</v>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2631578947368418E-2</v>
       </c>
     </row>
   </sheetData>
